--- a/时间记录/20160403Objective-C Programming.xlsx
+++ b/时间记录/20160403Objective-C Programming.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <r>
       <rPr>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>04.10-04.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109-154</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +472,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -504,6 +508,9 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/时间记录/20160403Objective-C Programming.xlsx
+++ b/时间记录/20160403Objective-C Programming.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="37360" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="37340" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <r>
       <rPr>
@@ -113,6 +113,10 @@
   </si>
   <si>
     <t>109-154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>155-171</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +476,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -511,6 +515,9 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/时间记录/20160403Objective-C Programming.xlsx
+++ b/时间记录/20160403Objective-C Programming.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <r>
       <rPr>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>155-171</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>171-184</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +480,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -518,6 +522,9 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/时间记录/20160403Objective-C Programming.xlsx
+++ b/时间记录/20160403Objective-C Programming.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>171-184</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>185-206</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +484,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -525,6 +529,9 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
